--- a/03.指标管理/大宗/指标v1.0.4.xlsx
+++ b/03.指标管理/大宗/指标v1.0.4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="4" activeTab="13"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1388">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7082,10 +7082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出入金频次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7673,12 +7669,60 @@
     <t>录入人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>交易市场、风险大类、客户、日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT  ZZJE FROM ACCOUNT.TQS_ZJJYSQ  WHERE XTYWDM='2' AND CLJG='111'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商信息变更</t>
+  </si>
+  <si>
+    <t>筛选条件</t>
+  </si>
+  <si>
+    <t>工商变更总结</t>
+  </si>
+  <si>
+    <t>操作人</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>综合分析</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>阈值5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7895,6 +7939,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -8148,13 +8206,19 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8518,6 +8582,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8561,9 +8629,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8952,57 +9022,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="11" customFormat="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="152" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="154" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="148"/>
       <c r="I1" s="94"/>
-      <c r="J1" s="146" t="s">
+      <c r="J1" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
       <c r="N1" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="O1" s="147" t="s">
+      <c r="O1" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="149"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="151"/>
       <c r="R1" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="S1" s="144" t="s">
+      <c r="S1" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="144" t="s">
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="146" t="s">
         <v>248</v>
       </c>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="144" t="s">
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="146" t="s">
         <v>353</v>
       </c>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="146"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="148"/>
       <c r="AF1" s="41"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="41"/>
@@ -9017,8 +9087,8 @@
       <c r="AR1" s="40"/>
     </row>
     <row r="2" spans="1:44" s="11" customFormat="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="44" t="s">
         <v>306</v>
       </c>
@@ -9749,7 +9819,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>10</v>
@@ -9788,7 +9858,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47" t="s">
@@ -9985,7 +10055,7 @@
       <c r="R20" s="48"/>
       <c r="S20" s="46"/>
       <c r="T20" s="47" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="W20" s="48"/>
       <c r="X20" s="46"/>
@@ -10649,10 +10719,10 @@
       <c r="AI35" s="47"/>
     </row>
     <row r="36" spans="1:42">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="145" t="s">
         <v>1180</v>
       </c>
-      <c r="B36" s="143"/>
+      <c r="B36" s="145"/>
       <c r="H36" s="48"/>
       <c r="J36" s="47"/>
       <c r="K36" s="47"/>
@@ -12846,16 +12916,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.375" customWidth="1"/>
@@ -12915,7 +12986,10 @@
         <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>1374</v>
+        <v>1373</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -13024,7 +13098,7 @@
     </row>
     <row r="11" spans="1:24" s="90" customFormat="1" ht="28.5">
       <c r="A11" s="106" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="106" t="s">
         <v>280</v>
@@ -13137,12 +13211,12 @@
       <c r="U13" s="90"/>
       <c r="V13" s="90"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
         <v>1122</v>
       </c>
@@ -13168,7 +13242,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="105" t="s">
         <v>1127</v>
       </c>
@@ -13181,61 +13255,61 @@
       <c r="I21" s="105"/>
       <c r="J21" s="105"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="105"/>
       <c r="B22" s="105" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C22" s="105" t="s">
         <v>1237</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="D22" s="105" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G22" s="105" t="s">
         <v>1238</v>
       </c>
-      <c r="D22" s="105" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E22" s="105" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F22" s="105" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G22" s="105" t="s">
+      <c r="H22" s="105" t="s">
         <v>1239</v>
       </c>
-      <c r="H22" s="105" t="s">
+      <c r="I22" s="105" t="s">
         <v>1240</v>
       </c>
-      <c r="I22" s="105" t="s">
+      <c r="J22" s="105" t="s">
         <v>1241</v>
       </c>
-      <c r="J22" s="105" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="103" t="s">
         <v>1128</v>
       </c>
       <c r="B25" s="104"/>
       <c r="C25" s="104"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="104"/>
       <c r="B26" s="104" t="s">
         <v>1129</v>
       </c>
       <c r="C26" s="104"/>
     </row>
-    <row r="27" spans="1:12" ht="36.75" customHeight="1"/>
-    <row r="28" spans="1:12">
+    <row r="27" spans="1:13" ht="36.75" customHeight="1"/>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>1139</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="144" t="s">
         <v>1142</v>
       </c>
       <c r="D29" t="s">
@@ -13257,21 +13331,24 @@
         <v>1135</v>
       </c>
       <c r="J29" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K29" t="s">
         <v>1136</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>1137</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="B32" t="s">
         <v>1144</v>
       </c>
@@ -13412,7 +13489,77 @@
         <v>1221</v>
       </c>
       <c r="F44" t="s">
-        <v>1222</v>
+        <v>1233</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="143" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G46" s="143"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="143"/>
+      <c r="B47" s="143" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C47" s="143" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D47" s="143" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E47" s="143" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="143" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B49" s="143"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G49" s="143"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="143"/>
+      <c r="B50" s="143" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C50" s="143" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D50" s="143" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E50" s="143" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143" t="s">
+        <v>1384</v>
       </c>
     </row>
   </sheetData>
@@ -13426,8 +13573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13436,76 +13583,79 @@
     <col min="6" max="6" width="11.375" style="128" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="128"/>
     <col min="8" max="8" width="35.875" style="128" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="128"/>
+    <col min="9" max="9" width="11.625" style="128" customWidth="1"/>
+    <col min="10" max="10" width="9" style="128"/>
+    <col min="11" max="11" width="36" style="128" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
       <c r="A1" s="127" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="129"/>
       <c r="B2" s="121" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C2" s="122" t="s">
         <v>1244</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="D2" s="123" t="s">
         <v>1245</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="E2" s="122" t="s">
         <v>1246</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="F2" s="122" t="s">
         <v>1247</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="G2" s="122" t="s">
         <v>1248</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="H2" s="122" t="s">
         <v>1249</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="I2" s="121" t="s">
         <v>1250</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="J2" s="130" t="s">
         <v>1251</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="K2" s="130" t="s">
         <v>1252</v>
       </c>
-      <c r="K2" s="130" t="s">
+      <c r="L2" s="130" t="s">
         <v>1253</v>
       </c>
-      <c r="L2" s="130" t="s">
+      <c r="M2" s="130" t="s">
         <v>1254</v>
       </c>
-      <c r="M2" s="130" t="s">
+      <c r="N2" s="130" t="s">
         <v>1255</v>
-      </c>
-      <c r="N2" s="130" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="131"/>
-      <c r="B3" s="156" t="s">
-        <v>1257</v>
+      <c r="B3" s="158" t="s">
+        <v>1256</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E3" s="111" t="s">
         <v>1258</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="F3" s="111" t="s">
         <v>1259</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>1260</v>
       </c>
       <c r="G3" s="111"/>
       <c r="H3" s="111" t="s">
-        <v>1261</v>
+        <v>1374</v>
       </c>
       <c r="I3" s="132" t="s">
         <v>74</v>
@@ -13514,7 +13664,7 @@
         <v>75</v>
       </c>
       <c r="K3" s="132" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L3" s="112">
         <v>18</v>
@@ -13528,27 +13678,27 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="133"/>
-      <c r="B4" s="156"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="111" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D4" s="124" t="s">
         <v>1263</v>
       </c>
-      <c r="D4" s="124" t="s">
-        <v>1264</v>
-      </c>
       <c r="E4" s="111" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I4" s="132"/>
       <c r="J4" s="132"/>
       <c r="K4" s="132" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="L4" s="112"/>
       <c r="M4" s="112"/>
@@ -13556,69 +13706,69 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="133"/>
-      <c r="B5" s="156"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="111" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D5" s="124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E5" s="111" t="s">
         <v>1258</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="F5" s="111" t="s">
         <v>1259</v>
-      </c>
-      <c r="F5" s="111" t="s">
-        <v>1260</v>
       </c>
       <c r="G5" s="111"/>
       <c r="H5" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I5" s="132" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J5" s="132" t="s">
         <v>1266</v>
       </c>
-      <c r="J5" s="132" t="s">
+      <c r="K5" s="132" t="s">
         <v>1267</v>
       </c>
-      <c r="K5" s="132" t="s">
+      <c r="L5" s="112" t="s">
         <v>1268</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="M5" s="112" t="s">
         <v>1269</v>
       </c>
-      <c r="M5" s="112" t="s">
+      <c r="N5" s="112" t="s">
         <v>1270</v>
-      </c>
-      <c r="N5" s="112" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="133"/>
-      <c r="B6" s="156"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="111" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E6" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="F6" s="111" t="s">
         <v>1273</v>
-      </c>
-      <c r="F6" s="111" t="s">
-        <v>1274</v>
       </c>
       <c r="G6" s="111"/>
       <c r="H6" s="111" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I6" s="132" t="s">
         <v>1275</v>
       </c>
-      <c r="I6" s="132" t="s">
+      <c r="J6" s="132" t="s">
         <v>1276</v>
       </c>
-      <c r="J6" s="132" t="s">
+      <c r="K6" s="134" t="s">
         <v>1277</v>
-      </c>
-      <c r="K6" s="134" t="s">
-        <v>1278</v>
       </c>
       <c r="L6" s="113">
         <v>0.7</v>
@@ -13632,9 +13782,9 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="133"/>
-      <c r="B7" s="156"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="114" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="114"/>
@@ -13642,10 +13792,10 @@
       <c r="G7" s="114"/>
       <c r="H7" s="114"/>
       <c r="I7" s="132" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J7" s="132" t="s">
         <v>1280</v>
-      </c>
-      <c r="J7" s="132" t="s">
-        <v>1281</v>
       </c>
       <c r="K7" s="132"/>
       <c r="L7" s="113">
@@ -13660,28 +13810,28 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="133"/>
-      <c r="B8" s="156"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="111" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E8" s="111" t="s">
         <v>1258</v>
       </c>
-      <c r="E8" s="111" t="s">
-        <v>1259</v>
-      </c>
       <c r="F8" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G8" s="111"/>
       <c r="H8" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I8" s="132" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J8" s="132" t="s">
         <v>1283</v>
-      </c>
-      <c r="J8" s="132" t="s">
-        <v>1284</v>
       </c>
       <c r="K8" s="132"/>
       <c r="L8" s="112">
@@ -13696,28 +13846,28 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="133"/>
-      <c r="B9" s="156"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E9" s="111" t="s">
         <v>1258</v>
       </c>
-      <c r="E9" s="111" t="s">
-        <v>1259</v>
-      </c>
       <c r="F9" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G9" s="111"/>
       <c r="H9" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I9" s="132" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J9" s="132" t="s">
         <v>1285</v>
-      </c>
-      <c r="J9" s="132" t="s">
-        <v>1286</v>
       </c>
       <c r="K9" s="132"/>
       <c r="L9" s="112">
@@ -13732,28 +13882,28 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="135"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="111" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D10" s="124" t="s">
         <v>1287</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="E10" s="111" t="s">
         <v>1288</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>1289</v>
-      </c>
       <c r="F10" s="111" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G10" s="111"/>
       <c r="H10" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I10" s="132" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J10" s="132" t="s">
         <v>1290</v>
-      </c>
-      <c r="J10" s="132" t="s">
-        <v>1291</v>
       </c>
       <c r="K10" s="132" t="s">
         <v>49</v>
@@ -13768,105 +13918,105 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="156" t="s">
-        <v>1292</v>
+    <row r="11" spans="1:14" ht="28.5">
+      <c r="B11" s="158" t="s">
+        <v>1291</v>
       </c>
       <c r="C11" s="118" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="126" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E11" s="118" t="s">
         <v>1293</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="F11" s="118" t="s">
         <v>1294</v>
-      </c>
-      <c r="F11" s="118" t="s">
-        <v>1295</v>
       </c>
       <c r="G11" s="118"/>
       <c r="H11" s="118" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I11" s="120" t="s">
         <v>1296</v>
       </c>
-      <c r="I11" s="120" t="s">
+      <c r="J11" s="120" t="s">
         <v>1297</v>
       </c>
-      <c r="J11" s="120" t="s">
+      <c r="K11" s="31" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L11" s="119" t="s">
         <v>1298</v>
       </c>
-      <c r="K11" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="119" t="s">
+      <c r="M11" s="119" t="s">
         <v>1299</v>
       </c>
-      <c r="M11" s="119" t="s">
+      <c r="N11" s="119" t="s">
         <v>1300</v>
       </c>
-      <c r="N11" s="119" t="s">
-        <v>1301</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="156"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="111" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="126" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E12" s="118" t="s">
         <v>1293</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="F12" s="118" t="s">
         <v>1294</v>
-      </c>
-      <c r="F12" s="118" t="s">
-        <v>1295</v>
       </c>
       <c r="G12" s="118"/>
       <c r="H12" s="118" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I12" s="132" t="s">
         <v>99</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K12" s="132" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="116" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M12" s="116" t="s">
         <v>1299</v>
       </c>
-      <c r="M12" s="116" t="s">
+      <c r="N12" s="116" t="s">
         <v>1300</v>
       </c>
-      <c r="N12" s="116" t="s">
-        <v>1301</v>
-      </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="156"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="111" t="s">
         <v>101</v>
       </c>
       <c r="D13" s="124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E13" s="111" t="s">
         <v>1258</v>
       </c>
-      <c r="E13" s="111" t="s">
-        <v>1259</v>
-      </c>
       <c r="F13" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G13" s="111"/>
       <c r="H13" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I13" s="132" t="s">
         <v>102</v>
       </c>
       <c r="J13" s="132" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K13" s="132" t="s">
         <v>62</v>
@@ -13882,28 +14032,28 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="156"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="111" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="124" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E14" s="111" t="s">
         <v>1258</v>
       </c>
-      <c r="E14" s="111" t="s">
-        <v>1259</v>
-      </c>
       <c r="F14" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G14" s="111"/>
       <c r="H14" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I14" s="132" t="s">
         <v>105</v>
       </c>
       <c r="J14" s="132" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K14" s="132" t="s">
         <v>63</v>
@@ -13919,28 +14069,28 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="156"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="117" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D15" s="117" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E15" s="117" t="s">
         <v>1293</v>
       </c>
-      <c r="E15" s="117" t="s">
-        <v>1294</v>
-      </c>
       <c r="F15" s="117" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G15" s="117"/>
       <c r="H15" s="117" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I15" s="132" t="s">
         <v>1306</v>
       </c>
-      <c r="I15" s="132" t="s">
+      <c r="J15" s="132" t="s">
         <v>1307</v>
-      </c>
-      <c r="J15" s="132" t="s">
-        <v>1308</v>
       </c>
       <c r="K15" s="132" t="s">
         <v>59</v>
@@ -13956,70 +14106,70 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="156" t="s">
-        <v>1309</v>
+      <c r="B16" s="158" t="s">
+        <v>1308</v>
       </c>
       <c r="C16" s="111" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E16" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E16" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F16" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G16" s="111"/>
       <c r="H16" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I16" s="132" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J16" s="132" t="s">
         <v>1310</v>
       </c>
-      <c r="J16" s="132" t="s">
+      <c r="K16" s="132" t="s">
         <v>1311</v>
       </c>
-      <c r="K16" s="132" t="s">
+      <c r="L16" s="112" t="s">
         <v>1312</v>
       </c>
-      <c r="L16" s="112" t="s">
+      <c r="M16" s="112" t="s">
+        <v>1298</v>
+      </c>
+      <c r="N16" s="116" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="158"/>
+      <c r="C17" s="111" t="s">
         <v>1313</v>
       </c>
-      <c r="M16" s="112" t="s">
-        <v>1299</v>
-      </c>
-      <c r="N16" s="116" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="156"/>
-      <c r="C17" s="111" t="s">
-        <v>1314</v>
-      </c>
       <c r="D17" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E17" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E17" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F17" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G17" s="111"/>
       <c r="H17" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I17" s="132" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J17" s="132" t="s">
         <v>1315</v>
       </c>
-      <c r="J17" s="132" t="s">
-        <v>1316</v>
-      </c>
       <c r="K17" s="132" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L17" s="113">
         <v>0.3</v>
@@ -14032,68 +14182,68 @@
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="156"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="111" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E18" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E18" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F18" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G18" s="111"/>
       <c r="H18" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I18" s="132" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J18" s="132" t="s">
         <v>1317</v>
       </c>
-      <c r="J18" s="132" t="s">
-        <v>1318</v>
-      </c>
       <c r="K18" s="132" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L18" s="112" t="s">
         <v>1312</v>
       </c>
-      <c r="L18" s="112" t="s">
-        <v>1313</v>
-      </c>
       <c r="M18" s="112" t="s">
+        <v>1298</v>
+      </c>
+      <c r="N18" s="116" t="s">
         <v>1299</v>
       </c>
-      <c r="N18" s="116" t="s">
-        <v>1300</v>
-      </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="156"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="111" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D19" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E19" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E19" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F19" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G19" s="111"/>
       <c r="H19" s="111" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I19" s="132" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J19" s="132" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K19" s="132" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L19" s="113">
         <v>0.2</v>
@@ -14106,28 +14256,28 @@
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="156"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="111" t="s">
         <v>119</v>
       </c>
       <c r="D20" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E20" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E20" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F20" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G20" s="111"/>
       <c r="H20" s="111" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I20" s="132" t="s">
         <v>1320</v>
       </c>
-      <c r="I20" s="132" t="s">
+      <c r="J20" s="132" t="s">
         <v>1321</v>
-      </c>
-      <c r="J20" s="132" t="s">
-        <v>1322</v>
       </c>
       <c r="K20" s="132" t="s">
         <v>64</v>
@@ -14143,28 +14293,28 @@
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="156"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="111" t="s">
         <v>122</v>
       </c>
       <c r="D21" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E21" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E21" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F21" s="111" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G21" s="111"/>
       <c r="H21" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I21" s="132" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J21" s="132" t="s">
         <v>1323</v>
-      </c>
-      <c r="J21" s="132" t="s">
-        <v>1324</v>
       </c>
       <c r="K21" s="132" t="s">
         <v>23</v>
@@ -14180,30 +14330,30 @@
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="156" t="s">
-        <v>1325</v>
+      <c r="B22" s="158" t="s">
+        <v>1324</v>
       </c>
       <c r="C22" s="111" t="s">
         <v>125</v>
       </c>
       <c r="D22" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E22" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E22" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F22" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G22" s="111"/>
       <c r="H22" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I22" s="132" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J22" s="132" t="s">
         <v>1327</v>
-      </c>
-      <c r="J22" s="132" t="s">
-        <v>1328</v>
       </c>
       <c r="K22" s="132" t="s">
         <v>24</v>
@@ -14219,28 +14369,28 @@
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="156"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="111" t="s">
         <v>128</v>
       </c>
       <c r="D23" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E23" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E23" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F23" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G23" s="111"/>
       <c r="H23" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I23" s="132" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J23" s="132" t="s">
         <v>1329</v>
-      </c>
-      <c r="J23" s="132" t="s">
-        <v>1330</v>
       </c>
       <c r="K23" s="132" t="s">
         <v>24</v>
@@ -14256,28 +14406,28 @@
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="156"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="111" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D24" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E24" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E24" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F24" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G24" s="111"/>
       <c r="H24" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I24" s="132" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J24" s="132" t="s">
         <v>1332</v>
-      </c>
-      <c r="J24" s="132" t="s">
-        <v>1333</v>
       </c>
       <c r="K24" s="132" t="s">
         <v>24</v>
@@ -14293,28 +14443,28 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="110.25" customHeight="1">
-      <c r="B25" s="156"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="111" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D25" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E25" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E25" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F25" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G25" s="111"/>
       <c r="H25" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I25" s="132" t="s">
         <v>133</v>
       </c>
       <c r="J25" s="132" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K25" s="132" t="s">
         <v>24</v>
@@ -14330,31 +14480,31 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="156"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="111" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D26" s="124" t="s">
         <v>1336</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="E26" s="111" t="s">
         <v>1337</v>
       </c>
-      <c r="E26" s="111" t="s">
-        <v>1338</v>
-      </c>
       <c r="F26" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G26" s="111"/>
       <c r="H26" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I26" s="132" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J26" s="132" t="s">
         <v>136</v>
       </c>
       <c r="K26" s="132" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="L26" s="112">
         <v>1</v>
@@ -14367,31 +14517,31 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="156"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="111" t="s">
         <v>138</v>
       </c>
       <c r="D27" s="124" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E27" s="111" t="s">
         <v>1341</v>
       </c>
-      <c r="E27" s="111" t="s">
-        <v>1342</v>
-      </c>
       <c r="F27" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G27" s="111"/>
       <c r="H27" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I27" s="132" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J27" s="132" t="s">
         <v>1343</v>
       </c>
-      <c r="J27" s="132" t="s">
+      <c r="K27" s="132" t="s">
         <v>1344</v>
-      </c>
-      <c r="K27" s="132" t="s">
-        <v>1345</v>
       </c>
       <c r="L27" s="113">
         <v>0.02</v>
@@ -14404,31 +14554,31 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="156"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="111" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D28" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E28" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E28" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F28" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G28" s="111"/>
       <c r="H28" s="111" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I28" s="132" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J28" s="132" t="s">
         <v>143</v>
       </c>
       <c r="K28" s="132" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="L28" s="112">
         <v>2</v>
@@ -14441,28 +14591,28 @@
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="156"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="111" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E29" s="111" t="s">
         <v>1272</v>
       </c>
-      <c r="E29" s="111" t="s">
-        <v>1273</v>
-      </c>
       <c r="F29" s="111" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G29" s="111"/>
       <c r="H29" s="111" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I29" s="132" t="s">
         <v>1349</v>
       </c>
-      <c r="I29" s="132" t="s">
+      <c r="J29" s="132" t="s">
         <v>1350</v>
-      </c>
-      <c r="J29" s="132" t="s">
-        <v>1351</v>
       </c>
       <c r="K29" s="132" t="s">
         <v>242</v>
@@ -14478,24 +14628,24 @@
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="158" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C30" s="111" t="s">
         <v>1352</v>
-      </c>
-      <c r="C30" s="111" t="s">
-        <v>1353</v>
       </c>
       <c r="D30" s="124"/>
       <c r="E30" s="111"/>
       <c r="F30" s="111"/>
       <c r="G30" s="111"/>
       <c r="H30" s="111" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I30" s="132" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J30" s="132" t="s">
         <v>1354</v>
-      </c>
-      <c r="J30" s="132" t="s">
-        <v>1355</v>
       </c>
       <c r="K30" s="132" t="s">
         <v>50</v>
@@ -14511,19 +14661,19 @@
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="156"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="111" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D31" s="124"/>
       <c r="E31" s="111"/>
       <c r="F31" s="111"/>
       <c r="G31" s="111"/>
       <c r="H31" s="111" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I31" s="132" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J31" s="132"/>
       <c r="K31" s="132" t="s">
@@ -14540,19 +14690,19 @@
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="156"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="111" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D32" s="124"/>
       <c r="E32" s="111"/>
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
       <c r="H32" s="111" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I32" s="132" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J32" s="132"/>
       <c r="K32" s="132" t="s">
@@ -14569,19 +14719,19 @@
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="156"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="111" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D33" s="124"/>
       <c r="E33" s="111"/>
       <c r="F33" s="111"/>
       <c r="G33" s="111"/>
       <c r="H33" s="111" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I33" s="132" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J33" s="132"/>
       <c r="K33" s="132" t="s">
@@ -14598,21 +14748,21 @@
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="157" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C34" s="111" t="s">
         <v>1362</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>1363</v>
       </c>
       <c r="D34" s="124"/>
       <c r="E34" s="111"/>
       <c r="F34" s="111"/>
       <c r="G34" s="111"/>
       <c r="H34" s="111" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I34" s="132" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="J34" s="132"/>
       <c r="K34" s="132" t="s">
@@ -14625,23 +14775,23 @@
       <c r="N34" s="116"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="155"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="111" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D35" s="124"/>
       <c r="E35" s="111"/>
       <c r="F35" s="111"/>
       <c r="G35" s="111"/>
       <c r="H35" s="111" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I35" s="132" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="J35" s="132"/>
       <c r="K35" s="132" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="L35" s="116">
         <v>1</v>
@@ -14667,7 +14817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -14720,7 +14870,7 @@
     </row>
     <row r="3" spans="1:10" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A3" s="26"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="158" t="s">
         <v>264</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -14750,7 +14900,7 @@
     </row>
     <row r="4" spans="1:10" s="13" customFormat="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="156"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="16" t="s">
         <v>82</v>
       </c>
@@ -14760,7 +14910,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="132" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -14768,7 +14918,7 @@
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="57">
       <c r="A5" s="28"/>
-      <c r="B5" s="156"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
@@ -14796,7 +14946,7 @@
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="213.75">
       <c r="A6" s="28"/>
-      <c r="B6" s="156"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="16" t="s">
         <v>83</v>
       </c>
@@ -14824,7 +14974,7 @@
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="128.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="156"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
@@ -14848,7 +14998,7 @@
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="114">
       <c r="A8" s="28"/>
-      <c r="B8" s="156"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="16" t="s">
         <v>88</v>
       </c>
@@ -14874,7 +15024,7 @@
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="114">
       <c r="A9" s="28"/>
-      <c r="B9" s="156"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="92" t="s">
         <v>90</v>
       </c>
@@ -14900,7 +15050,7 @@
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="28.5">
       <c r="A10" s="29"/>
-      <c r="B10" s="156"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
@@ -14927,7 +15077,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5">
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="158" t="s">
         <v>268</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -14943,7 +15093,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>269</v>
@@ -14956,7 +15106,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5">
-      <c r="B12" s="156"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="16" t="s">
         <v>98</v>
       </c>
@@ -14983,7 +15133,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75">
-      <c r="B13" s="156"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="16" t="s">
         <v>101</v>
       </c>
@@ -14997,7 +15147,7 @@
         <v>103</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H13" s="17">
         <v>3</v>
@@ -15010,7 +15160,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.75">
-      <c r="B14" s="156"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="16" t="s">
         <v>104</v>
       </c>
@@ -15037,7 +15187,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="156"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="22" t="s">
         <v>21</v>
       </c>
@@ -15064,7 +15214,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="128.25">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="158" t="s">
         <v>272</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -15093,7 +15243,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="114">
-      <c r="B17" s="156"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
@@ -15120,7 +15270,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="128.25">
-      <c r="B18" s="156"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="16" t="s">
         <v>115</v>
       </c>
@@ -15147,7 +15297,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="128.25">
-      <c r="B19" s="156"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="16" t="s">
         <v>19</v>
       </c>
@@ -15174,7 +15324,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="28.5">
-      <c r="B20" s="156"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="16" t="s">
         <v>119</v>
       </c>
@@ -15201,7 +15351,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="57">
-      <c r="B21" s="156"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="16" t="s">
         <v>122</v>
       </c>
@@ -15228,7 +15378,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="42.75">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="158" t="s">
         <v>274</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -15257,7 +15407,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="57">
-      <c r="B23" s="156"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="16" t="s">
         <v>128</v>
       </c>
@@ -15284,7 +15434,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="42.75">
-      <c r="B24" s="156"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="16" t="s">
         <v>25</v>
       </c>
@@ -15311,7 +15461,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="42.75">
-      <c r="B25" s="156"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="16" t="s">
         <v>26</v>
       </c>
@@ -15338,7 +15488,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="42.75">
-      <c r="B26" s="156"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="16" t="s">
         <v>27</v>
       </c>
@@ -15365,7 +15515,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="28.5">
-      <c r="B27" s="156"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="16" t="s">
         <v>138</v>
       </c>
@@ -15392,7 +15542,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="42.75">
-      <c r="B28" s="156"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="16" t="s">
         <v>28</v>
       </c>
@@ -15419,7 +15569,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="42.75">
-      <c r="B29" s="156"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="16" t="s">
         <v>145</v>
       </c>
@@ -15446,7 +15596,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="28.5">
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="158" t="s">
         <v>275</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -15475,7 +15625,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="156"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="16" t="s">
         <v>30</v>
       </c>
@@ -15500,7 +15650,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="156"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="16" t="s">
         <v>31</v>
       </c>
@@ -15525,7 +15675,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="28.5">
-      <c r="B33" s="156"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="16" t="s">
         <v>32</v>
       </c>
@@ -15550,7 +15700,7 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="157" t="s">
         <v>276</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -15573,7 +15723,7 @@
       <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="155"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="16" t="s">
         <v>34</v>
       </c>
@@ -16245,7 +16395,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -16263,31 +16413,31 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -16299,13 +16449,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -16335,13 +16485,13 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C20" s="4"/>
     </row>
